--- a/italent/documents/analyse/use_case_beschrijvingen.xlsx
+++ b/italent/documents/analyse/use_case_beschrijvingen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\analyse\use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="10665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Algemeen" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Docent" sheetId="5" r:id="rId3"/>
     <sheet name="Administrator" sheetId="2" r:id="rId4"/>
     <sheet name="Gast" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="123">
   <si>
     <t>Naam</t>
   </si>
@@ -368,6 +369,118 @@
   <si>
     <t>[Project is reeds gevalideerd]
 1. Systeem toont melding: 'gevalideerde projecten kunnen niet meer verwijderd worden'</t>
+  </si>
+  <si>
+    <t>1. Gebruiker voert gebruikersnaam en wachtwoord in en drukt op 'aanmelden'
+2. Systeem haalt de gebruikersgegevens op
+2. Systeem controleert de gegevens
+3. Systeem toont projecten en de aangemeldde gebruikersgegevens</t>
+  </si>
+  <si>
+    <t>Gebruiker is aangemeld en ziet zijn gegevens</t>
+  </si>
+  <si>
+    <t>[Logingegevens verkeerd]
+1. Systeem geeft aan dat gegevens incorrect zijn
+2. Systeem geeft de mogelijkheid om de gegevens opnieuw in te voeren
+3. Ga verder met stap 1 van het hoofdscenario</t>
+  </si>
+  <si>
+    <t>Sorteren van de projecten</t>
+  </si>
+  <si>
+    <t>Student, docent, gast</t>
+  </si>
+  <si>
+    <t>Inloggen</t>
+  </si>
+  <si>
+    <t>Projectenlijst bekijken</t>
+  </si>
+  <si>
+    <t>use case #2 (projectenlijst bekijken) werd successvol afgerond.</t>
+  </si>
+  <si>
+    <t>Projectenlijst filteren</t>
+  </si>
+  <si>
+    <t>Filteren van de projecten</t>
+  </si>
+  <si>
+    <t>1. Gebruiker kiest een filterweergave
+2. Systeem haalt projecten op aan de hand van de gekozen filteroptie
+3. Gebruiker ziet een gefilterde lijst</t>
+  </si>
+  <si>
+    <t>Projecten zoeken</t>
+  </si>
+  <si>
+    <t>Zoeken van projecten</t>
+  </si>
+  <si>
+    <t>Student, docent</t>
+  </si>
+  <si>
+    <t>Actor = studenten, docenten: use case #1 (inloggen) werd successvol afgerond
+Actor = gast: programma 'iTalent' werd gestart</t>
+  </si>
+  <si>
+    <t>Use case #2 (projectenlijst bekijken) werd successvol afgerond.</t>
+  </si>
+  <si>
+    <t>1. Gebruiker voert een zoek-keyword in
+2. Systeem filter de projecten aan de hand van het keyword
+3. Gebruiker ziet een gefilterde lijst</t>
+  </si>
+  <si>
+    <t>Gebruiker ziet een lijst van de projecten of slechts 1 project</t>
+  </si>
+  <si>
+    <t>Liken van de projecten in de projectenlijst</t>
+  </si>
+  <si>
+    <t>Use case #2  (projectenlijst bekijken) werd successvol afgerond.</t>
+  </si>
+  <si>
+    <t>Use case #2  (projectenlijst bekijken) of use case #7 (projectdetails bekijken) werd successvol afgerond.</t>
+  </si>
+  <si>
+    <t>Systeem toont een geupdatete lijst van projecten</t>
+  </si>
+  <si>
+    <t>1. Gebruiker klikt op 'like' bij een bepaald project
+2. Systeem kijkt na of de gebruiker het project reeds geliket heeft
+3. Systeem registreert like
+3. Systeem toont de geupdate pagina met nieuwe aantal likes</t>
+  </si>
+  <si>
+    <t>[Gebruiker heeft reeds geliket]
+1. Systeem verwijdert de like
+2. Ga verder met stap 3 van het hoofdscenario</t>
+  </si>
+  <si>
+    <t>Projectdetails opvragen</t>
+  </si>
+  <si>
+    <t>Details van een project opvragen</t>
+  </si>
+  <si>
+    <t>1. Gebruiker klikt op de 'meer info'-knop van een bepaald project
+2. Systeem haalt detailinformatie van het project op
+2. Systeem toont gegevens van het gekozen project</t>
+  </si>
+  <si>
+    <t>Projectnieuws bekijken</t>
+  </si>
+  <si>
+    <t>Project nieuws bekijken</t>
+  </si>
+  <si>
+    <t>Gebruiker ziet de detail van een project (inclusief nieuwsberichten)</t>
+  </si>
+  <si>
+    <t>[Geen nieuwsberichten beschikbaar]
+1. Systeem laat melding zien: 'geen nieuwsberichten beschikbaar'</t>
   </si>
 </sst>
 </file>
@@ -832,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1949,7 @@
         <v>Use case 'projectenlijst tonen' werd successvol afgerond.</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f>Algemeen!A42</f>
         <v>Hoofdscenario</v>
@@ -1941,7 +2054,7 @@
         <v>Gebruiker is inschreven op een project</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="str">
         <f>Algemeen!A53</f>
         <v>Alternatief scenario</v>
@@ -2228,7 +2341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>7</v>
       </c>
@@ -3327,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,4 +4182,545 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.140625" customWidth="1"/>
+    <col min="3" max="3" width="0.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/italent/documents/analyse/use_case_beschrijvingen.xlsx
+++ b/italent/documents/analyse/use_case_beschrijvingen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iTalent\italent\documents\analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,9 +66,6 @@
     <t>Projectenlijst sorteren</t>
   </si>
   <si>
-    <t>Categorieen definieren</t>
-  </si>
-  <si>
     <t>Projecten aanmaken</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Projectenlijst bekijken</t>
   </si>
   <si>
-    <t>use case #2 (projectenlijst bekijken) werd successvol afgerond.</t>
-  </si>
-  <si>
     <t>Projectenlijst filteren</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
   <si>
     <t>[Gegevens niet goed gevalideerd]
 1. Systeem laat melding zien 'Validatie mislukt'</t>
-  </si>
-  <si>
-    <t>het project werd verwijdert</t>
   </si>
   <si>
     <t>Projecten verwijderen</t>
@@ -255,58 +246,15 @@
     <t>Docent</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Actor klikt op 'onderhoud'
-2. Systeem navigeert naar de onderhoudspagina
-3. Actor klikt op 'categorieen definieren'
-4. Systeem navigeert naar de pagina 'categorieen definieren'
-5. Actor definieert nieuwe categorieen of veranderd bestaande
-6. Actor klikt op 'opslaan'
-7. Systeem valideert gegevens
-8. Systeem slaat informatie op
-9. Systeem navigeert naar de projectenlijst
-</t>
-  </si>
-  <si>
-    <t>Categorieen werden gedefinieerd</t>
-  </si>
-  <si>
-    <t>[Gegevens niet goed gevalideerd]
-1. Systeem laat melding zien 'Validatie mislukt: toegewezen categorieen kunnen niet verwijderd worden'</t>
-  </si>
-  <si>
     <t>Projecten backen</t>
   </si>
   <si>
     <t>actoren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loginscherm is zichtbaar
-actor kent zijn actorsnaam en wachtwoord
-</t>
-  </si>
-  <si>
-    <t>actor = studenten, docenten: use case #1 (inloggen) werd successvol afgerond
-actor = gast: programma 'iTalent' werd gestart</t>
-  </si>
-  <si>
-    <t>actor ziet een lijst van de projecten</t>
-  </si>
-  <si>
-    <t>actor ziet een lijst van de projecten of slechts 1 project</t>
   </si>
   <si>
     <t>[actor heeft reeds geliket]
 1. Systeem verwijdert de like
 2. Ga verder met stap 3 van het hoofdscenario</t>
-  </si>
-  <si>
-    <t>actor ziet de detail van een project</t>
-  </si>
-  <si>
-    <t>actor ziet de detail van een project (inclusief nieuwsberichten)</t>
-  </si>
-  <si>
-    <t>actor ziet sociale media pagina</t>
   </si>
   <si>
     <t>[actor mag het project niet verwijderen]
@@ -381,12 +329,85 @@
   <si>
     <t>Er werd een inschrijving verwijdert</t>
   </si>
+  <si>
+    <t>Actoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loginscherm is zichtbaar
+Actor kent zijn actorsnaam en wachtwoord
+</t>
+  </si>
+  <si>
+    <t>Actor = studenten, docenten: use case #1 (inloggen) werd successvol afgerond
+Actor = gast: programma 'iTalent' werd gestart</t>
+  </si>
+  <si>
+    <t>Actor ziet een lijst van de projecten</t>
+  </si>
+  <si>
+    <t>Actor ziet een lijst van de projecten of slechts 1 project</t>
+  </si>
+  <si>
+    <t>Actor ziet de detail van een project</t>
+  </si>
+  <si>
+    <t>Actor ziet de detail van een project (inclusief nieuwsberichten)</t>
+  </si>
+  <si>
+    <t>Actor ziet sociale media pagina</t>
+  </si>
+  <si>
+    <t>Het project werd verwijdert</t>
+  </si>
+  <si>
+    <r>
+      <t>Categorie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ë</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n werden gedefiniëerd</t>
+    </r>
+  </si>
+  <si>
+    <t>Categorieën definiëren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Actor klikt op 'onderhoud'
+2. Systeem navigeert naar de onderhoudspagina
+3. Actor klikt op 'categorieën definiëren'
+4. Systeem navigeert naar de pagina 'categorieën definiëren'
+5. Actor definiëert nieuwe categorieën of veranderd bestaande
+6. Actor klikt op 'opslaan'
+7. Systeem valideert gegevens
+8. Systeem slaat informatie op
+9. Systeem navigeert naar de projectenlijst
+</t>
+  </si>
+  <si>
+    <t>[Gegevens niet goed gevalideerd]
+1. Systeem laat melding zien 'Validatie mislukt: toegewezen categorieën kunnen niet verwijderd worden'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +422,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -527,7 +554,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -571,9 +598,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -611,7 +638,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -683,7 +710,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,10 +902,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -894,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -910,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -919,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,10 +967,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -951,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1000,15 +1027,15 @@
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1024,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1049,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,15 +1092,15 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1089,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1114,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,15 +1157,15 @@
         <v>2</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1146,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1154,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1195,15 +1222,15 @@
         <v>2</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1219,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,15 +1287,15 @@
         <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1284,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1307,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,15 +1350,15 @@
         <v>2</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1347,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1363,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,15 +1415,15 @@
         <v>2</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1412,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1435,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,15 +1478,15 @@
         <v>2</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1475,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1491,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,15 +1543,15 @@
         <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1540,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1556,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1565,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,15 +1608,15 @@
         <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1605,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1621,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1630,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,15 +1673,15 @@
         <v>2</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1670,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1686,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1695,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,15 +1738,15 @@
         <v>2</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1735,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1751,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,15 +1803,15 @@
         <v>2</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1800,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1816,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1825,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,15 +1868,15 @@
         <v>2</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -1865,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1881,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1890,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,15 +1933,15 @@
         <v>2</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1930,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1946,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1955,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,15 +1998,15 @@
         <v>2</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1995,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2018,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,15 +2061,15 @@
         <v>2</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -2058,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2077,6 +2104,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/italent/documents/analyse/use_case_beschrijvingen.xlsx
+++ b/italent/documents/analyse/use_case_beschrijvingen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iTalent\italent\documents\analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
   <si>
     <t>Naam</t>
   </si>
@@ -126,16 +126,6 @@
     <t>Details van een project opvragen</t>
   </si>
   <si>
-    <t>Projectnieuws bekijken</t>
-  </si>
-  <si>
-    <t>Project nieuws bekijken</t>
-  </si>
-  <si>
-    <t>[Geen nieuwsberichten beschikbaar]
-1. Systeem laat melding zien: 'geen nieuwsberichten beschikbaar'</t>
-  </si>
-  <si>
     <t>Projecten delen op sociale media</t>
   </si>
   <si>
@@ -176,16 +166,6 @@
     <t>1. Actor kiest een sorteerweergave
 2. Systeem sorteert de projecten aan de hand van de gekozen sortering
 3. Actor ziet een gesorteerde lijst</t>
-  </si>
-  <si>
-    <t>1. Actor kiest een filterweergave
-2. Systeem haalt projecten op aan de hand van de gekozen filteroptie
-3. Actor ziet een gefilterde lijst</t>
-  </si>
-  <si>
-    <t>1. Actor voert een zoek-keyword in
-2. Systeem filter de projecten aan de hand van het keyword
-3. Actor ziet een gefilterde lijst</t>
   </si>
   <si>
     <t>1. Actor klikt op de 'meer info'-knop van een bepaald project
@@ -214,35 +194,6 @@
 7. Systeem navigeert naar het detailoverzicht van het aangemaakte project</t>
   </si>
   <si>
-    <t>Announcements aanmaken</t>
-  </si>
-  <si>
-    <t>Announcement aanmaken</t>
-  </si>
-  <si>
-    <t>1. Actor klikt op 'mijn projecten'
-2. Systeem navigeert naar het projectoverzicht
-3. Actor klikt op een bepaald project
-4. Systeem nagiveert naar het projectoverzicht
-5. Actor voert nieuwe announcement in
-6. Systeem valideert gegevens
-7. Systeem slaat gegevens op
-8. Systeem navigeert naar de projectdetails</t>
-  </si>
-  <si>
-    <t>Milestone-status aanpassen</t>
-  </si>
-  <si>
-    <t>1. Actor klikt op 'mijn projecten'
-2. Systeem navigeert naar het projectoverzicht
-3. Actor klikt op een bepaald project
-4. Systeem nagiveert naar het projectoverzicht
-5. Actor bewerkt milestones
-6. Systeem valideert gegevens
-7. Systeem slaat gegevens op
-8. Systeem navigeert naar de projectdetails</t>
-  </si>
-  <si>
     <t>Docent</t>
   </si>
   <si>
@@ -290,41 +241,10 @@
 6. Systeem gaat laad het projectoverzicht</t>
   </si>
   <si>
-    <t>1. Actor klikt 'inschrijven'
-2. Systeem controleert of de Actor kan inschrijven voor dit project
-3. Systeem vraagt om bevestiging
-4. Systeem voegt actor toe aan het project
-5. Systeem toont melding aan de actor: 'succesvol ingeschreven'</t>
-  </si>
-  <si>
-    <t>1. Actor klikt 'backen'
-2. Systeem controleert of de Actor kan inschrijven voor dit project
-3. Systeem vraagt om bevestiging
-4. Systeem voegt actor toe aan het project
-5. Systeem toont melding aan de actor: 'succesvol ingeschreven'</t>
-  </si>
-  <si>
     <t>Project is zichtbaar voor gasten</t>
   </si>
   <si>
-    <t>1. Actor klikt 'publiek maken' of 'niet meer publiek maken'
-2. Systeem vraagt bevestiging
-3. Actor klikt op 'OK'
-4. Systeem slaat gegevens op
-5. Systeem navigeert naar het projectoverzicht</t>
-  </si>
-  <si>
     <t>Inschrijvingen verwijderen</t>
-  </si>
-  <si>
-    <t>1. Actor klikt op 'mijn projecten'
-2. Systeem navigeert naar de pagina 'mijn projecten'
-3. Actor klikt op een bepaald project
-4. Systeem toont de detailspagina van desbetreffend project
-5. Actor klikt op 'inschrijvingen verwijderen'
-6. Systeem vraagt bevestiging
-7. Actor klikt op 'Ja'
-8. Systeem navigeert naar het projectdetail</t>
   </si>
   <si>
     <t>Er werd een inschrijving verwijdert</t>
@@ -349,9 +269,6 @@
   </si>
   <si>
     <t>Actor ziet de detail van een project</t>
-  </si>
-  <si>
-    <t>Actor ziet de detail van een project (inclusief nieuwsberichten)</t>
   </si>
   <si>
     <t>Actor ziet sociale media pagina</t>
@@ -387,20 +304,87 @@
     <t>Categorieën definiëren</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Actor klikt op 'onderhoud'
-2. Systeem navigeert naar de onderhoudspagina
-3. Actor klikt op 'categorieën definiëren'
-4. Systeem navigeert naar de pagina 'categorieën definiëren'
-5. Actor definiëert nieuwe categorieën of veranderd bestaande
-6. Actor klikt op 'opslaan'
-7. Systeem valideert gegevens
-8. Systeem slaat informatie op
-9. Systeem navigeert naar de projectenlijst
-</t>
-  </si>
-  <si>
     <t>[Gegevens niet goed gevalideerd]
 1. Systeem laat melding zien 'Validatie mislukt: toegewezen categorieën kunnen niet verwijderd worden'</t>
+  </si>
+  <si>
+    <t>1. Actor voert tags of zoekcriteria in
+2. Systeem filtert projecten
+3. Actor ziet een gefilterde lijst</t>
+  </si>
+  <si>
+    <t>1. Actor voert een zoek-keyword in in de tag-box
+2. Systeem filter de projecten aan de hand van het keyword
+3. Actor ziet een gefilterde lijst</t>
+  </si>
+  <si>
+    <t>Project commentaar bekijken</t>
+  </si>
+  <si>
+    <t>Commentaar invoeren</t>
+  </si>
+  <si>
+    <t>Use case #7  (projectdetails bekijken) werd successvol afgerond.</t>
+  </si>
+  <si>
+    <t>1. Actor scrolt naar beneden en voert een comment in
+2. Systeem registreert comment
+2. Systeem toont de actuele comments, inclusief de laatst ingevoerde</t>
+  </si>
+  <si>
+    <t>Actor ziet een ververste lijst van commentaar</t>
+  </si>
+  <si>
+    <t>[Geen comments beschikbaar]
+1. Systeem laat melding zien: 'geen comments beschikbaar'</t>
+  </si>
+  <si>
+    <t>Project delen op sociale media</t>
+  </si>
+  <si>
+    <t>Use case #7  (projectdetails opvragen) of use case #2 (projectenlijst bekijken) werd successvol afgerond.</t>
+  </si>
+  <si>
+    <t>1. Actor klikt 'inschrijven' en voert een aantal uren in
+2. Systeem controleert of de actor kan inschrijven voor dit project
+3. Systeem voegt actor toe aan het project
+4. Systeem ververst het project en laat de laatste stand zien</t>
+  </si>
+  <si>
+    <t>[Gegevens niet goed gevalideerd]
+1. Systeem laat melding zien in het veld waarop de validatie mislukt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Actor klikt op 'categorieen'
+2. Systeem navigeert naar de categoriepagina
+3. Actor voert categorienaam in en klikt op opslaan of klikt het vuilbakje naat een categorienaam
+4. Systeem valideert gegevens
+5. Systeem slaat informatie op
+6. Systeem navigeert naar de projectenlijst
+</t>
+  </si>
+  <si>
+    <t>1. Actor klikt 'backen'
+2. Systeem controleert of de Actor kan inschrijven voor dit project
+3. Actor voert backingspercentage in
+4. Systeem voegt actor toe aan het project
+5. Systeem laadt de pagina opnieuw</t>
+  </si>
+  <si>
+    <t>1. Actor klikt 'publiek maken' of 'niet meer publiek maken' - checkbox
+2. Actor klikt op 'OK'
+3. Systeem slaat gegevens op
+4. Systeem navigeert naar het projectoverzicht</t>
+  </si>
+  <si>
+    <t>1. Actor klikt op 'mijn projecten'
+2. Systeem navigeert naar de pagina 'mijn projecten'
+3. Actor klikt op een bepaald project
+4. Systeem toont de detailspagina van desbetreffend project
+5. Actor klikt op 'inschrijvingen verwijderen'
+6. Actor klikt op het vuilbakje naast een inschrijving en klikt op 'opslaan'
+7. Systeem verwijdert de inschrijving
+8. Systeem navigeert naar het projectdetail</t>
   </si>
 </sst>
 </file>
@@ -554,7 +538,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -598,9 +582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -638,7 +622,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -710,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -860,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +886,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -913,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -921,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,7 +951,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -978,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1032,7 +1016,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>17</v>
@@ -1051,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1097,7 +1081,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>17</v>
@@ -1116,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1162,7 +1146,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>17</v>
@@ -1181,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1227,7 +1211,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -1246,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1276,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -1311,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1334,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,12 +1334,12 @@
         <v>2</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>24</v>
@@ -1366,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1374,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1390,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1399,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,15 +1399,15 @@
         <v>2</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1439,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1462,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,12 +1462,12 @@
         <v>2</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>24</v>
@@ -1494,15 +1478,15 @@
         <v>3</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1518,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,12 +1527,12 @@
         <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>24</v>
@@ -1559,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1567,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1583,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1597,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>24</v>
@@ -1624,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1632,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1648,459 +1632,331 @@
         <v>6</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="219.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B112" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="B115" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="B116" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+      <c r="B117" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="B118" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:2" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>13</v>
+      <c r="B121" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="B122" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
+      <c r="B127" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>58</v>
+      <c r="B130" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="B131" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+      <c r="B136" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B138" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>86</v>
+      <c r="B139" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="B140" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
+      <c r="B145" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="B146" s="10"/>
+    </row>
+    <row r="147" spans="1:2" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B147" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>61</v>
+      <c r="B148" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="B149" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+      <c r="B154" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B162" s="10"/>
-    </row>
-    <row r="163" spans="1:2" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="10"/>
+      <c r="B155" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/italent/documents/analyse/use_case_beschrijvingen.xlsx
+++ b/italent/documents/analyse/use_case_beschrijvingen.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="219.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -1702,7 +1702,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:2" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:2" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B146" s="10"/>
     </row>
-    <row r="147" spans="1:2" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>0</v>
